--- a/spec/Dialogs/Данные для диалога свойст основных средств.xlsx
+++ b/spec/Dialogs/Данные для диалога свойст основных средств.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Справочник" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ID!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ID!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="142">
   <si>
     <t>Полное наименование</t>
   </si>
@@ -387,9 +388,6 @@
     <t>VT_ID</t>
   </si>
   <si>
-    <t>a2fixedassets.DEPRECIATION_METHODS</t>
-  </si>
-  <si>
     <t>a2doc.DOCUMENTS</t>
   </si>
   <si>
@@ -424,6 +422,39 @@
   </si>
   <si>
     <t>V_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заполняем справочник "Производители" </t>
+  </si>
+  <si>
+    <t>Номер паспорта</t>
+  </si>
+  <si>
+    <t>Автотранспорт</t>
+  </si>
+  <si>
+    <t>ID_AVTO</t>
+  </si>
+  <si>
+    <t>Модель, тип, марка</t>
+  </si>
+  <si>
+    <t>Дата выпуска (постройки)</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ликвидационная стоимость </t>
+  </si>
+  <si>
+    <t>Амортизация</t>
+  </si>
+  <si>
+    <t>Начисление амортизации начинается с месяца, следующего за месяцем ввода объектов в эксплуатацию, и осуществляется ежемесячно на протяжении всего срока полезного использования объекта. Амортизация приостанавливается на период реконструкции, модернизации, достройки, дооборудования и консервации объектов ОС. В этих случаях начисление амортизации прекращается с месяца, следующего за месяцем перевода объекта ОС на реконструкцию, консервацию, модернизацию.                                                                                                                                                                                                                                               В случае выбытия объекта ОС амортизация прекращает начисляться с месяца, следующего за месяцем вывода объекта ОС из эксплуатации.</t>
+  </si>
+  <si>
+    <t>Сумма денежных средств или стоимость других активов, которую предприятие ожидает получить от реализации (ликвидации) необоротных активов по истечении срока их полезного использования (эксплуатации), за вычетом расходов, связанных с продажей (ликвидацией). Никаких законодательных критериев или ориентиров в данном вопросе нет. Предприятие по собственному усмотрению определяет сумму, которую в будущем, по его мнению, сможет получить от реализации (ликвидации) необоротных активов по истечении срока их полезного использования (эксплуатации), за вычетом расходов, связанных с продажей (ликвидацией). Большинство предприятий принимают решение (закреплено приказом) установить нулевую ликвидационную стоимость для всех объектов. Помните также, что действующим законодательством не установлено никаких негативных последствий для СХД в случае, если будущий доход от реализации ОС не будет соответствовать рассчитанному ранее размеру ликвидационной стоимости.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +524,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -540,6 +577,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -823,11 +871,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,10 +886,11 @@
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="94.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -861,13 +910,14 @@
         <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -890,8 +940,9 @@
         <v>35</v>
       </c>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -914,8 +965,9 @@
         <v>35</v>
       </c>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -926,7 +978,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -938,8 +990,9 @@
         <v>91</v>
       </c>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -953,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
@@ -962,8 +1015,9 @@
         <v>91</v>
       </c>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -977,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>30</v>
@@ -986,10 +1040,13 @@
         <v>91</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1000,10 +1057,10 @@
         <v>93</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -1012,8 +1069,9 @@
         <v>91</v>
       </c>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1027,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>30</v>
@@ -1036,8 +1094,9 @@
         <v>91</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1060,8 +1119,9 @@
         <v>91</v>
       </c>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1072,109 +1132,108 @@
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>46</v>
@@ -1182,51 +1241,51 @@
       <c r="G14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>46</v>
@@ -1237,46 +1296,50 @@
       <c r="H16" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>46</v>
@@ -1284,201 +1347,204 @@
       <c r="G18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>124</v>
+        <v>65</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="G25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>46</v>
@@ -1487,24 +1553,25 @@
         <v>91</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>46</v>
@@ -1515,94 +1582,186 @@
       <c r="H27" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>80</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="G32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H32"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="192.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
